--- a/data/SCM.xlsx
+++ b/data/SCM.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -415,7 +445,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F,W,SP,SUConcurrent: Enrollment in the designated section of the associated course.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Enrollment in the designated section of the associated course.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>F,W,SP,SU</t>
         </is>
       </c>
     </row>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH 142, PHYS 132, PHYS 133, PHYS 122, PHYS 123, PSC 102, or PSC 103; and consent of instructor.</t>
+          <t>MATH 142, PHYS 132, PHYS 133, PHYS 122, PHYS 123, PSC 102, or PSC 103; and consent of instructor.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BIO 160, BIO 161, CHEM 124, CHEM 127, MATH 141, PHYS 131, or PHYS 141.</t>
+          <t>BIO 160, BIO 161, CHEM 124, CHEM 127, MATH 141, PHYS 131, or PHYS 141.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -520,12 +625,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; minimum of 3.0 CPSLO GPA; and consent of instructor. Recommended: SCM 101 and completion of GWR.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; minimum of 3.0 CPSLO GPA; and consent of instructor.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SCM 101 and completion of GWR.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -700,6 +925,21 @@
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
